--- a/upload.xlsx
+++ b/upload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlada\Documents\MEGA\HSE-3\CourseProject\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CC3C56-815D-4EBE-8886-2483C9D9DDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4838D5B-58E4-46BA-A2A5-428362EBBCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="3072" windowWidth="16584" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Дата/Время</t>
   </si>
@@ -87,7 +87,10 @@
     <t>temp_int</t>
   </si>
   <si>
-    <t>Липецк пост №5</t>
+    <t>Краснокамск пост №5</t>
+  </si>
+  <si>
+    <t>Краснокамск пост №6</t>
   </si>
 </sst>
 </file>
@@ -438,7 +441,7 @@
   <dimension ref="A1:L125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,7 +527,33 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>44927.083333333336</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>1.5</v>
+      </c>
+      <c r="D3">
+        <v>998.1</v>
+      </c>
+      <c r="E3">
+        <v>240</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>88</v>
+      </c>
+      <c r="H3">
+        <v>5.9</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
